--- a/biology/Médecine/Jean_Baptiste_Nicolas_Boyer_de_Paradis/Jean_Baptiste_Nicolas_Boyer_de_Paradis.xlsx
+++ b/biology/Médecine/Jean_Baptiste_Nicolas_Boyer_de_Paradis/Jean_Baptiste_Nicolas_Boyer_de_Paradis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Baptiste Nicolas Boyer de Paradis, né le 5 août 1693 à Marseille (paroisse Saint-Ferréol) et mort le 2 avril 1768 à Paris (paroisse Saint Sulpice) à l'âge de 74 ans, est un médecin français.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Jean Antoine Baptiste Boyer et de Marguerite Venture, il est reçu docteur en médecine de la faculté de Montpellier en 1717.
 Doyen de la Faculté de Paris, il participe à la lutte contre l’épidémie de peste à Marseille en 1720 par ordre de Philippe d'Orléans régent de France et devient médecin du régiment des Gardes françaises (1723), puis inspecteur des hôpitaux en Flandres et enfin inspecteur des hôpitaux militaires du royaume (1757). 
-Traitant essentiellement les maladies épidémiques et contagieuses, il apporte de Constantinople le système de l'inoculation et parvient ainsi à vaincre l'épidémie qui touchait les troupes de l’archevêché de Trèves (1734). En 1742, il parvient à arrêter une épizootie proche de Paris[1].
+Traitant essentiellement les maladies épidémiques et contagieuses, il apporte de Constantinople le système de l'inoculation et parvient ainsi à vaincre l'épidémie qui touchait les troupes de l’archevêché de Trèves (1734). En 1742, il parvient à arrêter une épizootie proche de Paris.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Musée-bibliothèque Paul Arbaud (Académie d'Aix-en-Provence)
 Louis Dulieu, Montpellier et la Médecine militaire française sous l’Ancien Régime
